--- a/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>APMI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,35 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,37 +709,43 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,66 +883,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,19 +960,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -964,19 +990,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,19 +1038,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,48 +1100,54 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1122,37 +1164,43 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,19 +1228,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1209,19 +1260,22 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,37 +1324,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,19 +1420,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1383,19 +1452,22 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,19 +1516,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1470,25 +1548,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,16 +1615,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1559,103 +1645,115 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1675,16 +1773,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1704,16 +1805,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>150000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1733,66 +1837,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,19 +1965,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1878,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,19 +2029,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>151300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>151800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,13 +2091,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1991,48 +2121,54 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2049,19 +2185,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2078,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,16 +2249,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,19 +2377,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2252,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,37 +2487,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,19 +2551,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,19 +2679,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,25 +2743,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,19 +2780,22 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +2828,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,19 +3018,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3066,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3160,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,77 +3334,86 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3177,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>APMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,8 +714,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,14 +746,20 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +790,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +828,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +848,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +920,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -912,14 +952,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,14 +990,20 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,25 +1013,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -993,8 +1047,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,16 +1062,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1085,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1105,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1071,8 +1139,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1103,8 +1177,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1129,31 +1209,37 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1253,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,14 +1285,20 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,25 +1329,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1263,25 +1367,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1405,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,14 +1475,20 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1557,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1432,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1455,25 +1595,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1633,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,25 +1671,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1551,31 +1709,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1752,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1788,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1822,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1674,14 +1854,20 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1706,14 +1892,20 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1738,14 +1930,20 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1755,11 +1953,11 @@
       <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1776,23 +1974,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,22 +2012,28 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>150000</v>
+        <v>150200</v>
       </c>
       <c r="E47" s="3">
         <v>150000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>150000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1840,8 +2050,14 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1866,14 +2082,20 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1898,14 +2120,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,26 +2202,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2240,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,26 +2278,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F54" s="3">
         <v>151300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>151800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2352,22 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2386,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2150,14 +2418,20 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2165,16 +2439,16 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2188,25 +2462,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2220,8 +2500,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2252,23 +2538,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F62" s="3">
         <v>11500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>14500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2576,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,25 +2690,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2820,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2516,14 +2852,20 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,25 +2896,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,25 +3048,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>140700</v>
+      </c>
+      <c r="F76" s="3">
         <v>138800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>137000</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2714,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,31 +3124,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,25 +3167,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2815,8 +3205,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3225,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2855,14 +3253,20 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,8 +3449,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3030,16 +3464,16 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3053,8 +3487,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3507,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3093,14 +3535,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3617,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3189,14 +3649,20 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3675,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,8 +3823,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3363,14 +3855,20 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3395,14 +3893,20 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3410,16 +3914,16 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3431,6 +3935,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>APMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +721,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,14 +756,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,14 +978,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,14 +1019,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,28 +1041,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1053,8 +1080,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,16 +1095,16 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,19 +1150,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1179,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1215,34 +1255,37 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1259,22 +1302,25 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1282,8 +1328,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1291,14 +1337,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,28 +1384,31 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1373,28 +1425,31 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,14 +1542,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,19 +1642,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1601,28 +1671,31 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,28 +1753,31 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1715,34 +1794,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,8 +1876,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1799,17 +1886,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +1915,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1860,14 +1950,17 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1898,14 +1991,17 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1936,19 +2032,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -1959,8 +2058,8 @@
       <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1980,26 +2079,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,16 +2120,19 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E47" s="3">
         <v>150200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>150000</v>
       </c>
       <c r="F47" s="3">
         <v>150000</v>
@@ -2035,8 +2140,8 @@
       <c r="G47" s="3">
         <v>150000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>150000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2056,8 +2161,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2088,14 +2196,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2126,14 +2237,17 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2217,20 +2337,20 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,29 +2407,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E54" s="3">
         <v>150800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>151100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>151300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>151800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,8 +2484,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2363,14 +2494,14 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,8 +2523,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2424,34 +2558,37 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2468,28 +2605,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2506,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,26 +2687,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,28 +2851,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14800</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2858,14 +3026,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>3</v>
+      <c r="M70" s="3">
+        <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,28 +3073,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2940,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,28 +3237,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E76" s="3">
         <v>142300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>137000</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3092,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,34 +3319,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,28 +3365,31 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,14 +3458,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,28 +3669,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3541,14 +3762,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3655,14 +3885,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,8 +4072,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3861,14 +4107,17 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3899,34 +4148,37 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>APMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,8 +724,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,14 +762,17 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +812,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +962,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,14 +1000,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,14 +1044,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,31 +1067,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1083,8 +1109,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1092,22 +1121,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1173,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,22 +1183,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1215,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1259,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1258,37 +1297,40 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1305,34 +1347,37 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1340,14 +1385,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,31 +1435,34 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1428,31 +1479,34 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1469,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,14 +1605,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1699,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1642,22 +1711,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1674,31 +1743,34 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,31 +1831,34 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1797,37 +1875,40 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,8 +1962,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,17 +1975,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1953,14 +2042,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1994,14 +2086,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2035,22 +2130,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
@@ -2061,8 +2159,8 @@
       <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2082,29 +2180,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,19 +2224,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E47" s="3">
         <v>150900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>150200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>150000</v>
       </c>
       <c r="G47" s="3">
         <v>150000</v>
@@ -2143,8 +2247,8 @@
       <c r="H47" s="3">
         <v>150000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>150000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2164,8 +2268,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2199,14 +2306,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2240,14 +2350,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2444,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,20 +2459,20 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2488,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,32 +2532,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E54" s="3">
         <v>151400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>151100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>151300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>151800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,8 +2614,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,14 +2627,14 @@
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2656,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2561,37 +2694,40 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2608,31 +2744,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2649,8 +2788,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,29 +2832,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2876,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,8 +3008,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2863,22 +3020,22 @@
         <v>7800</v>
       </c>
       <c r="E66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14800</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2895,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3029,14 +3196,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>3</v>
+      <c r="N70" s="3">
+        <v>0</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,31 +3246,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3117,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,31 +3422,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E76" s="3">
         <v>143600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137000</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3281,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,37 +3510,40 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,31 +3559,34 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3409,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3623,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,14 +3659,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,8 +3885,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3681,22 +3897,22 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3713,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3949,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,14 +3985,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4079,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3888,14 +4117,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,8 +4317,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4110,14 +4355,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4151,14 +4399,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4166,22 +4417,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4196,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
